--- a/table.xlsx
+++ b/table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f99861ef1c9ada40/Courses/Udacity AI/AIND-Planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xyshe\OneDrive\Courses\Udacity AI\AIND-Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="7F2E334E4E227321AA7800D569CED67F77B0FDF5" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{C55F9253-ED58-4293-A5FE-952FBD0E698D}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="7F2E334E4E227321AA7800D569CED67F77B0FDF5" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{E5C44903-0016-4D10-BF85-462E18FDB972}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{7191697D-1401-4B01-8829-CB2BDED88B42}"/>
   </bookViews>
@@ -64,7 +64,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +121,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,12 +446,13 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -466,175 +475,193 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>24.13</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>153.43</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>180</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>30509</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>129631</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>29.04</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>130.99</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>224</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>43064</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>156103</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>9</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>5.17</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>48</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>14863</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>4927</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>12</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>1444</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>8.49</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>35.58</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>170</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>12414</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>40955</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>6</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>9</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="B7" s="3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>26.91</v>
+      </c>
+      <c r="D7" s="3">
+        <v>111.43</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>779</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2281</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9</v>
+      </c>
+      <c r="J7" s="3">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
